--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_23_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_23_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-27651.04787663987</v>
+        <v>-30548.47613427687</v>
       </c>
     </row>
     <row r="7">
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>18.21008304703069</v>
       </c>
       <c r="G2" t="n">
-        <v>13.88719820851069</v>
+        <v>18.21008304703069</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.512231307191803</v>
       </c>
       <c r="K2" t="n">
-        <v>10.78545761117388</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>12.38369583986287</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -741,19 +741,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18.21008304703265</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>18.21008304703069</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>18.21008304703069</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.4983113685808797</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>15.54112977924278</v>
+        <v>15.54112977924375</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>18.21008304703265</v>
+        <v>18.21008304703069</v>
       </c>
       <c r="R3" t="n">
-        <v>18.21008304703265</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4983113685835844</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>12.84193026251984</v>
       </c>
       <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1017,19 +1017,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>31.01751192697151</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="S6" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>43.85944218949135</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>67.91326313282504</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.38870434448781</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>112.1126601249237</v>
+        <v>74.42592173560139</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1215,22 +1215,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="E9" t="n">
-        <v>64.50303381101364</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="F9" t="n">
         <v>112.1126601249237</v>
       </c>
       <c r="G9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>64.26286446312977</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1254,10 +1254,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>9.256558775821418</v>
       </c>
       <c r="R9" t="n">
-        <v>82.095592888813</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>89.49227226221132</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>342.4950335113426</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>300.8746055035065</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.9454894324103</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>18.93482921065055</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.592917841534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>291.2403613834999</v>
       </c>
       <c r="I14" t="n">
-        <v>28.90056660389942</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>101.6950537740602</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>77.58253498665451</v>
+        <v>202.4786139429425</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9688673339484</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>260.321169201812</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>87.8977843151208</v>
       </c>
       <c r="I15" t="n">
-        <v>12.76005920853819</v>
+        <v>12.76005920853817</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.8783163942143</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>3.079669200529788</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>82.30038209396095</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>286.2037931948048</v>
       </c>
       <c r="V16" t="n">
-        <v>209.509372961046</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1853,10 +1853,10 @@
         <v>350.3201677200479</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H17" t="n">
         <v>255.241665994756</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295185</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545725</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645689</v>
+        <v>219.324384064569</v>
       </c>
       <c r="V17" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W17" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X17" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="18">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297235</v>
       </c>
       <c r="C19" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D19" t="n">
         <v>117.0052706659985</v>
@@ -2011,16 +2011,16 @@
         <v>114.8237602943553</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707158</v>
       </c>
       <c r="G19" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139453022</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221423</v>
+        <v>42.04747230221587</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T19" t="n">
         <v>186.4872700401421</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V19" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716142</v>
       </c>
       <c r="W19" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843772</v>
       </c>
       <c r="X19" t="n">
         <v>194.0994530368233</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998809</v>
+        <v>186.974450999881</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>375.2658433894975</v>
       </c>
       <c r="G20" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247502</v>
       </c>
       <c r="H20" t="n">
         <v>255.241665994756</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295183</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545724</v>
@@ -2239,7 +2239,7 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C22" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D22" t="n">
         <v>117.0052706659985</v>
@@ -2248,16 +2248,16 @@
         <v>114.8237602943553</v>
       </c>
       <c r="F22" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G22" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H22" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453016</v>
+        <v>54.5262913945302</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221423</v>
       </c>
       <c r="S22" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T22" t="n">
         <v>186.4872700401421</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295183</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
@@ -2415,7 +2415,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I24" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T24" t="n">
         <v>189.0833237787849</v>
@@ -2476,7 +2476,7 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C25" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D25" t="n">
         <v>117.0052706659985</v>
@@ -2485,16 +2485,16 @@
         <v>114.8237602943553</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139452918</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H26" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295184</v>
       </c>
       <c r="T26" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545713</v>
       </c>
       <c r="U26" t="n">
         <v>219.3243840645689</v>
@@ -2713,25 +2713,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C28" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E28" t="n">
         <v>114.8237602943553</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G28" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453015</v>
+        <v>54.5262913945302</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.0474723022158</v>
+        <v>42.04747230221585</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T28" t="n">
         <v>186.4872700401421</v>
@@ -2776,7 +2776,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X28" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y28" t="n">
         <v>186.9744509998809</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D29" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F29" t="n">
         <v>375.2658433894975</v>
@@ -2807,7 +2807,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H29" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295174</v>
+        <v>60.32014642295183</v>
       </c>
       <c r="T29" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V29" t="n">
         <v>296.142056117921</v>
@@ -2858,7 +2858,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="30">
@@ -2950,25 +2950,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C31" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943544</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G31" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453011</v>
+        <v>54.5262913945302</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221576</v>
+        <v>42.04747230221584</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T31" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U31" t="n">
         <v>254.5831063612652</v>
@@ -3013,10 +3013,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D32" t="n">
         <v>323.072839268469</v>
@@ -3038,10 +3038,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G32" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H32" t="n">
         <v>255.2416659947559</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295172</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V32" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W32" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X32" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="33">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C34" t="n">
         <v>135.6366187464139</v>
@@ -3193,7 +3193,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F34" t="n">
         <v>113.8108456707173</v>
@@ -3205,7 +3205,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221574</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T34" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V34" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W34" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X34" t="n">
         <v>194.0994530368232</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D35" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E35" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F35" t="n">
         <v>375.2658433894975</v>
@@ -3281,7 +3281,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H35" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295175</v>
+        <v>60.3201464229518</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V35" t="n">
         <v>296.142056117921</v>
@@ -3332,7 +3332,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="36">
@@ -3427,22 +3427,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D37" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E37" t="n">
-        <v>114.8237602943558</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F37" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G37" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H37" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453017</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S37" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T37" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U37" t="n">
         <v>254.5831063612652</v>
@@ -3487,10 +3487,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X37" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3509,7 @@
         <v>323.072839268469</v>
       </c>
       <c r="E38" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200485</v>
       </c>
       <c r="F38" t="n">
         <v>375.2658433894975</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295176</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
@@ -3715,7 +3715,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U40" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V40" t="n">
         <v>220.5274409716141</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D41" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E41" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F41" t="n">
         <v>375.2658433894975</v>
@@ -3755,7 +3755,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H41" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295183</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V41" t="n">
         <v>296.142056117921</v>
@@ -3806,7 +3806,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="42">
@@ -3898,25 +3898,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C43" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D43" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E43" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G43" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H43" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442986</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453013</v>
+        <v>54.5262913945302</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221584</v>
       </c>
       <c r="S43" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T43" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U43" t="n">
         <v>254.5831063612652</v>
@@ -3961,10 +3961,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X43" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295183</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
@@ -4135,25 +4135,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C46" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D46" t="n">
         <v>117.0052706659985</v>
       </c>
       <c r="E46" t="n">
-        <v>114.8237602943544</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F46" t="n">
         <v>113.8108456707174</v>
       </c>
       <c r="G46" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H46" t="n">
         <v>110.1245053442998</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453018</v>
+        <v>54.5262913945302</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221585</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424834</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72.84033218813062</v>
+        <v>45.8329656349273</v>
       </c>
       <c r="C2" t="n">
-        <v>72.84033218813062</v>
+        <v>45.8329656349273</v>
       </c>
       <c r="D2" t="n">
-        <v>72.84033218813062</v>
+        <v>45.8329656349273</v>
       </c>
       <c r="E2" t="n">
-        <v>72.84033218813062</v>
+        <v>45.8329656349273</v>
       </c>
       <c r="F2" t="n">
-        <v>65.89483143892714</v>
+        <v>27.43894235509831</v>
       </c>
       <c r="G2" t="n">
-        <v>51.86735850103756</v>
+        <v>9.044919075269327</v>
       </c>
       <c r="H2" t="n">
-        <v>51.86735850103756</v>
+        <v>9.044919075269327</v>
       </c>
       <c r="I2" t="n">
-        <v>51.86735850103756</v>
+        <v>9.044919075269327</v>
       </c>
       <c r="J2" t="n">
-        <v>51.86735850103756</v>
+        <v>1.456806643762455</v>
       </c>
       <c r="K2" t="n">
-        <v>40.97295687358919</v>
+        <v>1.456806643762455</v>
       </c>
       <c r="L2" t="n">
-        <v>28.46417319696003</v>
+        <v>1.456806643762455</v>
       </c>
       <c r="M2" t="n">
-        <v>46.49215541352236</v>
+        <v>19.48478886032284</v>
       </c>
       <c r="N2" t="n">
-        <v>64.52013763008469</v>
+        <v>37.51277107688323</v>
       </c>
       <c r="O2" t="n">
-        <v>72.84033218813062</v>
+        <v>45.8329656349273</v>
       </c>
       <c r="P2" t="n">
-        <v>72.84033218813062</v>
+        <v>45.8329656349273</v>
       </c>
       <c r="Q2" t="n">
-        <v>72.84033218813062</v>
+        <v>45.8329656349273</v>
       </c>
       <c r="R2" t="n">
-        <v>72.84033218813062</v>
+        <v>45.8329656349273</v>
       </c>
       <c r="S2" t="n">
-        <v>72.84033218813062</v>
+        <v>45.8329656349273</v>
       </c>
       <c r="T2" t="n">
-        <v>72.84033218813062</v>
+        <v>45.8329656349273</v>
       </c>
       <c r="U2" t="n">
-        <v>72.84033218813062</v>
+        <v>45.8329656349273</v>
       </c>
       <c r="V2" t="n">
-        <v>72.84033218813062</v>
+        <v>45.8329656349273</v>
       </c>
       <c r="W2" t="n">
-        <v>72.84033218813062</v>
+        <v>45.8329656349273</v>
       </c>
       <c r="X2" t="n">
-        <v>72.84033218813062</v>
+        <v>45.8329656349273</v>
       </c>
       <c r="Y2" t="n">
-        <v>72.84033218813062</v>
+        <v>45.8329656349273</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.5489408117176</v>
+        <v>54.44630890829379</v>
       </c>
       <c r="C3" t="n">
-        <v>35.5489408117176</v>
+        <v>54.44630890829379</v>
       </c>
       <c r="D3" t="n">
-        <v>17.15491753188664</v>
+        <v>54.44630890829379</v>
       </c>
       <c r="E3" t="n">
-        <v>17.15491753188664</v>
+        <v>54.44630890829379</v>
       </c>
       <c r="F3" t="n">
-        <v>17.15491753188664</v>
+        <v>36.0522856284648</v>
       </c>
       <c r="G3" t="n">
-        <v>17.15491753188664</v>
+        <v>17.65826234863582</v>
       </c>
       <c r="H3" t="n">
-        <v>17.15491753188664</v>
+        <v>17.15491753188745</v>
       </c>
       <c r="I3" t="n">
-        <v>17.15491753188664</v>
+        <v>17.15491753188745</v>
       </c>
       <c r="J3" t="n">
-        <v>17.15491753188664</v>
+        <v>17.15491753188745</v>
       </c>
       <c r="K3" t="n">
-        <v>1.456806643762612</v>
+        <v>1.456806643762455</v>
       </c>
       <c r="L3" t="n">
-        <v>19.48478886032494</v>
+        <v>19.48478886032284</v>
       </c>
       <c r="M3" t="n">
-        <v>37.51277107688727</v>
+        <v>26.2388764622868</v>
       </c>
       <c r="N3" t="n">
-        <v>55.5407532934496</v>
+        <v>44.26685867884719</v>
       </c>
       <c r="O3" t="n">
-        <v>72.84033218813062</v>
+        <v>62.29484089540757</v>
       </c>
       <c r="P3" t="n">
-        <v>72.84033218813062</v>
+        <v>72.84033218812277</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.44630890829966</v>
+        <v>54.44630890829379</v>
       </c>
       <c r="R3" t="n">
-        <v>36.0522856284687</v>
+        <v>54.44630890829379</v>
       </c>
       <c r="S3" t="n">
-        <v>35.5489408117176</v>
+        <v>54.44630890829379</v>
       </c>
       <c r="T3" t="n">
-        <v>35.5489408117176</v>
+        <v>54.44630890829379</v>
       </c>
       <c r="U3" t="n">
-        <v>35.5489408117176</v>
+        <v>54.44630890829379</v>
       </c>
       <c r="V3" t="n">
-        <v>35.5489408117176</v>
+        <v>54.44630890829379</v>
       </c>
       <c r="W3" t="n">
-        <v>35.5489408117176</v>
+        <v>54.44630890829379</v>
       </c>
       <c r="X3" t="n">
-        <v>35.5489408117176</v>
+        <v>54.44630890829379</v>
       </c>
       <c r="Y3" t="n">
-        <v>35.5489408117176</v>
+        <v>54.44630890829379</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.456806643762612</v>
+        <v>1.456806643762455</v>
       </c>
       <c r="C4" t="n">
-        <v>1.456806643762612</v>
+        <v>1.456806643762455</v>
       </c>
       <c r="D4" t="n">
-        <v>1.456806643762612</v>
+        <v>1.456806643762455</v>
       </c>
       <c r="E4" t="n">
-        <v>1.456806643762612</v>
+        <v>1.456806643762455</v>
       </c>
       <c r="F4" t="n">
-        <v>1.456806643762612</v>
+        <v>1.456806643762455</v>
       </c>
       <c r="G4" t="n">
-        <v>1.456806643762612</v>
+        <v>1.456806643762455</v>
       </c>
       <c r="H4" t="n">
-        <v>1.456806643762612</v>
+        <v>1.456806643762455</v>
       </c>
       <c r="I4" t="n">
-        <v>1.456806643762612</v>
+        <v>1.456806643762455</v>
       </c>
       <c r="J4" t="n">
-        <v>1.456806643762612</v>
+        <v>1.456806643762455</v>
       </c>
       <c r="K4" t="n">
-        <v>1.456806643762612</v>
+        <v>1.456806643762455</v>
       </c>
       <c r="L4" t="n">
-        <v>1.456806643762612</v>
+        <v>1.456806643762455</v>
       </c>
       <c r="M4" t="n">
-        <v>1.456806643762612</v>
+        <v>1.456806643762455</v>
       </c>
       <c r="N4" t="n">
-        <v>1.456806643762612</v>
+        <v>1.456806643762455</v>
       </c>
       <c r="O4" t="n">
-        <v>1.456806643762612</v>
+        <v>1.456806643762455</v>
       </c>
       <c r="P4" t="n">
-        <v>1.456806643762612</v>
+        <v>1.456806643762455</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.456806643762612</v>
+        <v>1.456806643762455</v>
       </c>
       <c r="R4" t="n">
-        <v>1.456806643762612</v>
+        <v>1.456806643762455</v>
       </c>
       <c r="S4" t="n">
-        <v>1.456806643762612</v>
+        <v>1.456806643762455</v>
       </c>
       <c r="T4" t="n">
-        <v>1.456806643762612</v>
+        <v>1.456806643762455</v>
       </c>
       <c r="U4" t="n">
-        <v>1.456806643762612</v>
+        <v>1.456806643762455</v>
       </c>
       <c r="V4" t="n">
-        <v>1.456806643762612</v>
+        <v>1.456806643762455</v>
       </c>
       <c r="W4" t="n">
-        <v>1.456806643762612</v>
+        <v>1.456806643762455</v>
       </c>
       <c r="X4" t="n">
-        <v>1.456806643762612</v>
+        <v>1.456806643762455</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.456806643762612</v>
+        <v>1.456806643762455</v>
       </c>
     </row>
     <row r="5">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>117.551221084159</v>
+      </c>
+      <c r="C6" t="n">
+        <v>117.551221084159</v>
+      </c>
+      <c r="D6" t="n">
+        <v>104.5795743543409</v>
+      </c>
+      <c r="E6" t="n">
+        <v>104.5795743543409</v>
+      </c>
+      <c r="F6" t="n">
+        <v>104.5795743543409</v>
+      </c>
+      <c r="G6" t="n">
         <v>54.28158745825545</v>
       </c>
-      <c r="C6" t="n">
+      <c r="H6" t="n">
         <v>54.28158745825545</v>
-      </c>
-      <c r="D6" t="n">
-        <v>54.28158745825545</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3.98360056216997</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3.98360056216997</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3.98360056216997</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.98360056216997</v>
       </c>
       <c r="I6" t="n">
         <v>3.98360056216997</v>
@@ -4650,13 +4650,13 @@
         <v>3.98360056216997</v>
       </c>
       <c r="L6" t="n">
-        <v>50.30614171732423</v>
+        <v>22.54896088111074</v>
       </c>
       <c r="M6" t="n">
-        <v>99.60319867417761</v>
+        <v>71.84601783796413</v>
       </c>
       <c r="N6" t="n">
-        <v>148.900255631031</v>
+        <v>121.1430747948175</v>
       </c>
       <c r="O6" t="n">
         <v>170.4401317516709</v>
@@ -4665,31 +4665,31 @@
         <v>199.1800281084985</v>
       </c>
       <c r="Q6" t="n">
-        <v>199.1800281084985</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="R6" t="n">
-        <v>199.1800281084985</v>
+        <v>117.551221084159</v>
       </c>
       <c r="S6" t="n">
-        <v>148.882041212413</v>
+        <v>117.551221084159</v>
       </c>
       <c r="T6" t="n">
-        <v>104.5795743543409</v>
+        <v>117.551221084159</v>
       </c>
       <c r="U6" t="n">
-        <v>54.28158745825545</v>
+        <v>117.551221084159</v>
       </c>
       <c r="V6" t="n">
-        <v>54.28158745825545</v>
+        <v>117.551221084159</v>
       </c>
       <c r="W6" t="n">
-        <v>54.28158745825545</v>
+        <v>117.551221084159</v>
       </c>
       <c r="X6" t="n">
-        <v>54.28158745825545</v>
+        <v>117.551221084159</v>
       </c>
       <c r="Y6" t="n">
-        <v>54.28158745825545</v>
+        <v>117.551221084159</v>
       </c>
     </row>
     <row r="7">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>223.1198808016112</v>
+        <v>261.1872933160781</v>
       </c>
       <c r="C8" t="n">
-        <v>223.1198808016112</v>
+        <v>261.1872933160781</v>
       </c>
       <c r="D8" t="n">
-        <v>223.1198808016112</v>
+        <v>261.1872933160781</v>
       </c>
       <c r="E8" t="n">
-        <v>223.1198808016112</v>
+        <v>261.1872933160781</v>
       </c>
       <c r="F8" t="n">
-        <v>154.5206251118889</v>
+        <v>254.2417925668747</v>
       </c>
       <c r="G8" t="n">
         <v>140.996681329578</v>
@@ -4805,10 +4805,10 @@
         <v>8.969012809993892</v>
       </c>
       <c r="K8" t="n">
-        <v>32.11753523687545</v>
+        <v>32.11753523687554</v>
       </c>
       <c r="L8" t="n">
-        <v>97.73708609773408</v>
+        <v>97.73708609773416</v>
       </c>
       <c r="M8" t="n">
         <v>202.4209174083929</v>
@@ -4838,16 +4838,16 @@
         <v>336.3649920389078</v>
       </c>
       <c r="V8" t="n">
-        <v>223.1198808016112</v>
+        <v>261.1872933160781</v>
       </c>
       <c r="W8" t="n">
-        <v>223.1198808016112</v>
+        <v>261.1872933160781</v>
       </c>
       <c r="X8" t="n">
-        <v>223.1198808016112</v>
+        <v>261.1872933160781</v>
       </c>
       <c r="Y8" t="n">
-        <v>223.1198808016112</v>
+        <v>261.1872933160781</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>365.5257991978633</v>
+        <v>348.7043465218837</v>
       </c>
       <c r="C9" t="n">
-        <v>365.5257991978633</v>
+        <v>348.7043465218837</v>
       </c>
       <c r="D9" t="n">
-        <v>365.5257991978633</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="E9" t="n">
-        <v>300.3712195907788</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="F9" t="n">
-        <v>187.1261083534822</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="G9" t="n">
-        <v>73.8809971161856</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="H9" t="n">
-        <v>73.8809971161856</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="I9" t="n">
         <v>8.969012809993892</v>
@@ -4884,16 +4884,16 @@
         <v>8.969012809993892</v>
       </c>
       <c r="K9" t="n">
-        <v>8.969012809993892</v>
+        <v>36.22166818534551</v>
       </c>
       <c r="L9" t="n">
-        <v>91.93611230387162</v>
+        <v>119.1887676792232</v>
       </c>
       <c r="M9" t="n">
-        <v>202.927645827546</v>
+        <v>230.1803012028977</v>
       </c>
       <c r="N9" t="n">
-        <v>287.4309731640694</v>
+        <v>341.1718347265721</v>
       </c>
       <c r="O9" t="n">
         <v>387.4830745953194</v>
@@ -4902,31 +4902,31 @@
         <v>448.4506404996946</v>
       </c>
       <c r="Q9" t="n">
-        <v>448.4506404996946</v>
+        <v>439.100581130178</v>
       </c>
       <c r="R9" t="n">
-        <v>365.5257991978633</v>
+        <v>439.100581130178</v>
       </c>
       <c r="S9" t="n">
-        <v>365.5257991978633</v>
+        <v>439.100581130178</v>
       </c>
       <c r="T9" t="n">
-        <v>365.5257991978633</v>
+        <v>439.100581130178</v>
       </c>
       <c r="U9" t="n">
-        <v>365.5257991978633</v>
+        <v>439.100581130178</v>
       </c>
       <c r="V9" t="n">
-        <v>365.5257991978633</v>
+        <v>439.100581130178</v>
       </c>
       <c r="W9" t="n">
-        <v>365.5257991978633</v>
+        <v>348.7043465218837</v>
       </c>
       <c r="X9" t="n">
-        <v>365.5257991978633</v>
+        <v>348.7043465218837</v>
       </c>
       <c r="Y9" t="n">
-        <v>365.5257991978633</v>
+        <v>348.7043465218837</v>
       </c>
     </row>
     <row r="10">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1921.870414581993</v>
+        <v>1575.915835277607</v>
       </c>
       <c r="C11" t="n">
-        <v>1552.907897641582</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="D11" t="n">
-        <v>1552.907897641582</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E11" t="n">
-        <v>1167.119645043337</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927149</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912097</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>3072.075344883006</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V11" t="n">
-        <v>3072.075344883006</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W11" t="n">
-        <v>3072.075344883006</v>
+        <v>2656.568750250375</v>
       </c>
       <c r="X11" t="n">
-        <v>2698.609586621927</v>
+        <v>2352.65500731754</v>
       </c>
       <c r="Y11" t="n">
-        <v>2308.470254646115</v>
+        <v>1962.515675341729</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.021302392779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L12" t="n">
         <v>765.1517452158135</v>
@@ -5136,34 +5136,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>531.2215399677104</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C13" t="n">
-        <v>531.2215399677104</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D13" t="n">
-        <v>381.1049005553747</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E13" t="n">
-        <v>381.1049005553747</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F13" t="n">
-        <v>234.2149530574644</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G13" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279953</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764915</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5215,34 +5215,34 @@
         <v>1617.076751502318</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088492</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1638.191681214136</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V13" t="n">
-        <v>1383.507193008249</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W13" t="n">
-        <v>1094.090022971288</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X13" t="n">
-        <v>866.1004720732712</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y13" t="n">
-        <v>645.3078929297411</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2042.465741517852</v>
+        <v>1892.715112162363</v>
       </c>
       <c r="C14" t="n">
-        <v>1673.50322457744</v>
+        <v>1523.752595221952</v>
       </c>
       <c r="D14" t="n">
-        <v>1315.23752597069</v>
+        <v>1165.486896615201</v>
       </c>
       <c r="E14" t="n">
-        <v>929.4492733724453</v>
+        <v>779.698644016957</v>
       </c>
       <c r="F14" t="n">
-        <v>518.4633685828378</v>
+        <v>368.7127392273495</v>
       </c>
       <c r="G14" t="n">
-        <v>103.7230475307833</v>
+        <v>368.7127392273495</v>
       </c>
       <c r="H14" t="n">
-        <v>103.7230475307833</v>
+        <v>74.53055601169305</v>
       </c>
       <c r="I14" t="n">
-        <v>74.53055601169302</v>
+        <v>74.53055601169305</v>
       </c>
       <c r="J14" t="n">
         <v>291.0377674773526</v>
       </c>
       <c r="K14" t="n">
-        <v>666.2644720056001</v>
+        <v>666.2644720056005</v>
       </c>
       <c r="L14" t="n">
         <v>1168.668140645701</v>
@@ -5291,37 +5291,37 @@
         <v>2364.220579235393</v>
       </c>
       <c r="O14" t="n">
-        <v>2922.039463163076</v>
+        <v>2922.039463163077</v>
       </c>
       <c r="P14" t="n">
-        <v>3363.623974140405</v>
+        <v>3363.623974140406</v>
       </c>
       <c r="Q14" t="n">
-        <v>3647.062805049515</v>
+        <v>3647.062805049516</v>
       </c>
       <c r="R14" t="n">
-        <v>3726.527800584651</v>
+        <v>3726.527800584652</v>
       </c>
       <c r="S14" t="n">
-        <v>3623.805524045196</v>
+        <v>3726.527800584652</v>
       </c>
       <c r="T14" t="n">
-        <v>3545.43932708898</v>
+        <v>3522.003948117033</v>
       </c>
       <c r="U14" t="n">
-        <v>3545.43932708898</v>
+        <v>3268.500041719106</v>
       </c>
       <c r="V14" t="n">
-        <v>3545.43932708898</v>
+        <v>3268.500041719106</v>
       </c>
       <c r="W14" t="n">
-        <v>3192.670671818865</v>
+        <v>2915.731386448992</v>
       </c>
       <c r="X14" t="n">
-        <v>2819.204913557785</v>
+        <v>2542.265628187912</v>
       </c>
       <c r="Y14" t="n">
-        <v>2429.065581581974</v>
+        <v>2279.314952226485</v>
       </c>
     </row>
     <row r="15">
@@ -5352,22 +5352,22 @@
         <v>87.41950470718615</v>
       </c>
       <c r="I15" t="n">
-        <v>74.53055601169302</v>
+        <v>74.53055601169305</v>
       </c>
       <c r="J15" t="n">
-        <v>74.53055601169302</v>
+        <v>184.6629209807619</v>
       </c>
       <c r="K15" t="n">
-        <v>170.1112445399385</v>
+        <v>451.051499062829</v>
       </c>
       <c r="L15" t="n">
-        <v>574.6261033188189</v>
+        <v>855.5663578417095</v>
       </c>
       <c r="M15" t="n">
-        <v>1066.032731952775</v>
+        <v>1346.972986475666</v>
       </c>
       <c r="N15" t="n">
-        <v>1584.85407673636</v>
+        <v>1584.854076736359</v>
       </c>
       <c r="O15" t="n">
         <v>2037.254452037593</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>536.8874520356474</v>
+        <v>395.3118273379118</v>
       </c>
       <c r="C16" t="n">
-        <v>536.8874520356474</v>
+        <v>395.3118273379118</v>
       </c>
       <c r="D16" t="n">
-        <v>536.8874520356474</v>
+        <v>245.1951879255761</v>
       </c>
       <c r="E16" t="n">
-        <v>388.9743584532542</v>
+        <v>245.1951879255761</v>
       </c>
       <c r="F16" t="n">
-        <v>242.0844109553439</v>
+        <v>245.1951879255761</v>
       </c>
       <c r="G16" t="n">
-        <v>74.53055601169302</v>
+        <v>77.64133298192516</v>
       </c>
       <c r="H16" t="n">
-        <v>74.53055601169302</v>
+        <v>74.53055601169305</v>
       </c>
       <c r="I16" t="n">
-        <v>74.53055601169302</v>
+        <v>74.53055601169305</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9765865525472</v>
+        <v>129.9765865525473</v>
       </c>
       <c r="K16" t="n">
-        <v>350.9282837923172</v>
+        <v>350.9282837923173</v>
       </c>
       <c r="L16" t="n">
-        <v>689.1968198553105</v>
+        <v>689.1968198553109</v>
       </c>
       <c r="M16" t="n">
         <v>1056.242685479733</v>
@@ -5449,7 +5449,7 @@
         <v>1419.995637229308</v>
       </c>
       <c r="O16" t="n">
-        <v>1739.964067776859</v>
+        <v>1739.964067776858</v>
       </c>
       <c r="P16" t="n">
         <v>1990.231654135874</v>
@@ -5458,28 +5458,28 @@
         <v>2080.068878389595</v>
       </c>
       <c r="R16" t="n">
-        <v>1996.937179304786</v>
+        <v>2080.068878389595</v>
       </c>
       <c r="S16" t="n">
-        <v>1996.937179304786</v>
+        <v>2080.068878389595</v>
       </c>
       <c r="T16" t="n">
-        <v>1775.80712196855</v>
+        <v>1858.93882105336</v>
       </c>
       <c r="U16" t="n">
-        <v>1486.712381367737</v>
+        <v>1569.844080452547</v>
       </c>
       <c r="V16" t="n">
-        <v>1275.086752114155</v>
+        <v>1315.15959224666</v>
       </c>
       <c r="W16" t="n">
-        <v>985.6695820771948</v>
+        <v>1025.742422209699</v>
       </c>
       <c r="X16" t="n">
-        <v>757.6800311791775</v>
+        <v>797.7528713116817</v>
       </c>
       <c r="Y16" t="n">
-        <v>536.8874520356474</v>
+        <v>576.9602921681516</v>
       </c>
     </row>
     <row r="17">
@@ -5498,13 +5498,13 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.178257479668</v>
+        <v>725.1782574796669</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162839</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H17" t="n">
         <v>84.98040897511625</v>
@@ -5516,7 +5516,7 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K17" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L17" t="n">
         <v>1336.032957050964</v>
@@ -5543,22 +5543,22 @@
         <v>4188.091007924548</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>84.98040897511625</v>
       </c>
       <c r="K18" t="n">
-        <v>388.0214583249807</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="L18" t="n">
-        <v>841.8200879193082</v>
+        <v>326.515925275411</v>
       </c>
       <c r="M18" t="n">
-        <v>1390.738552529597</v>
+        <v>875.4343898857001</v>
       </c>
       <c r="N18" t="n">
-        <v>1968.593900456</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="O18" t="n">
-        <v>2474.99885540425</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P18" t="n">
-        <v>2555.644190323788</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q18" t="n">
         <v>2555.644190323788</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502103</v>
+        <v>872.862419750209</v>
       </c>
       <c r="C19" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477707</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609035</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039789</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H19" t="n">
         <v>140.0574709897932</v>
@@ -5671,7 +5671,7 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042781</v>
       </c>
       <c r="K19" t="n">
         <v>459.5287020443611</v>
@@ -5686,7 +5686,7 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313934</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P19" t="n">
         <v>2392.455631028688</v>
@@ -5695,28 +5695,28 @@
         <v>2529.521427597204</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="20">
@@ -5738,46 +5738,46 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162839</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K20" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M20" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P20" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T20" t="n">
         <v>4017.391409283565</v>
@@ -5823,28 +5823,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J21" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K21" t="n">
-        <v>216.5575109835859</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L21" t="n">
-        <v>670.3561405779134</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M21" t="n">
-        <v>1219.274605188202</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N21" t="n">
-        <v>1797.129953114605</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O21" t="n">
-        <v>2303.534908062855</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P21" t="n">
         <v>2555.644190323788</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502107</v>
       </c>
       <c r="C22" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477724</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039807</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315389</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749447</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897933</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J22" t="n">
         <v>185.1742787042784</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L22" t="n">
         <v>857.3827676902786</v>
@@ -5932,28 +5932,28 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D23" t="n">
         <v>1458.093420216582</v>
@@ -5978,52 +5978,52 @@
         <v>725.1782574796671</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162839</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J23" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O23" t="n">
         <v>3311.067850233287</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S23" t="n">
         <v>4188.091007924547</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W23" t="n">
         <v>3175.879079437414</v>
@@ -6063,28 +6063,28 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J24" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K24" t="n">
-        <v>421.6357602913728</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L24" t="n">
-        <v>875.4343898857002</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M24" t="n">
-        <v>875.4343898857002</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N24" t="n">
-        <v>1453.289737812102</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O24" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P24" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q24" t="n">
         <v>2555.644190323788</v>
@@ -6121,49 +6121,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502096</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609044</v>
+        <v>617.6685920609041</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039796</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315378</v>
       </c>
       <c r="G25" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749435</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897922</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042787</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K25" t="n">
         <v>459.5287020443614</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q25" t="n">
         <v>2529.521427597205</v>
@@ -6172,7 +6172,7 @@
         <v>2487.049233352542</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T25" t="n">
         <v>2144.901839127668</v>
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796684</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162839</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K26" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L26" t="n">
         <v>1336.032957050963</v>
@@ -6236,10 +6236,10 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P26" t="n">
         <v>3813.656640612704</v>
@@ -6248,28 +6248,28 @@
         <v>4142.907144767229</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400164</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437416</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="27">
@@ -6297,13 +6297,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J27" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K27" t="n">
         <v>519.5985603334505</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502107</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477724</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039806</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H28" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042803</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443629</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902804</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040895</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354975</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313937</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.45563102869</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597207</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X28" t="n">
         <v>1211.444469073043</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2121.462641112805</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497862</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D29" t="n">
-        <v>1458.09342021658</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796662</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162838</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511507</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076825</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951438</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501801</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="30">
@@ -6534,13 +6534,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J30" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K30" t="n">
         <v>519.5985603334505</v>
@@ -6549,16 +6549,16 @@
         <v>973.3971899277778</v>
       </c>
       <c r="M30" t="n">
-        <v>973.3971899277778</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
-        <v>1453.289737812102</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O30" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P30" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
         <v>2555.644190323788</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502108</v>
+        <v>872.8624197502096</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477726</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609056</v>
+        <v>617.6685920609041</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039811</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315393</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H31" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J31" t="n">
         <v>185.1742787042784</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M31" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="32">
@@ -6680,31 +6680,31 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796681</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K32" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M32" t="n">
         <v>2001.213713746739</v>
@@ -6713,37 +6713,37 @@
         <v>2681.771598889755</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P32" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H33" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J33" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K33" t="n">
-        <v>301.7509472448909</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L33" t="n">
-        <v>301.7509472448909</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M33" t="n">
-        <v>850.66941185518</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N33" t="n">
-        <v>1428.524759781582</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O33" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R33" t="n">
         <v>2555.644190323788</v>
@@ -6832,73 +6832,73 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477716</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042772</v>
+        <v>185.1742787042791</v>
       </c>
       <c r="K34" t="n">
-        <v>459.52870204436</v>
+        <v>459.5287020443619</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902775</v>
+        <v>857.3827676902794</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040892</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y34" t="n">
         <v>1022.581387254981</v>
@@ -6917,22 +6917,22 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E35" t="n">
         <v>1104.234664943807</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796682</v>
+        <v>725.1782574796678</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162846</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511697</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J35" t="n">
         <v>337.4933016076839</v>
@@ -7008,13 +7008,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J36" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K36" t="n">
         <v>519.5985603334505</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502108</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477725</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609053</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G37" t="n">
         <v>251.2943450749444</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042781</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L37" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q37" t="n">
         <v>2529.521427597205</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U37" t="n">
         <v>1887.747186237502</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X37" t="n">
         <v>1211.444469073043</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796679</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G38" t="n">
         <v>342.8002736162838</v>
@@ -7175,22 +7175,22 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q38" t="n">
         <v>4142.907144767229</v>
@@ -7263,7 +7263,7 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>2100.171002464469</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O39" t="n">
         <v>2555.644190323788</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502104</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609051</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039807</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I40" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J40" t="n">
-        <v>185.174278704278</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443607</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902782</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M40" t="n">
         <v>1285.552079040893</v>
@@ -7345,10 +7345,10 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q40" t="n">
         <v>2529.521427597205</v>
@@ -7360,19 +7360,19 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y40" t="n">
         <v>1022.581387254981</v>
@@ -7391,37 +7391,37 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796682</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162846</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511697</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I41" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L41" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O41" t="n">
         <v>3311.067850233288</v>
@@ -7439,22 +7439,22 @@
         <v>4188.091007924548</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U41" t="n">
         <v>3795.851627400163</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="42">
@@ -7500,7 +7500,7 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>2100.171002464469</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O42" t="n">
         <v>2555.644190323788</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502093</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477708</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609036</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039791</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315372</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749434</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897933</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I43" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040893</v>
@@ -7582,25 +7582,25 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q43" t="n">
         <v>2529.521427597205</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V43" t="n">
         <v>1664.992195357083</v>
@@ -7634,10 +7634,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162839</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H44" t="n">
         <v>84.98040897511625</v>
@@ -7649,19 +7649,19 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M44" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P44" t="n">
         <v>3813.656640612704</v>
@@ -7676,19 +7676,19 @@
         <v>4188.091007924548</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W44" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y44" t="n">
         <v>2476.13298385146</v>
@@ -7737,10 +7737,10 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
-        <v>2100.171002464469</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O45" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P45" t="n">
         <v>2555.644190323788</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502096</v>
+        <v>872.8624197502107</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477713</v>
+        <v>735.8557341477724</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609041</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039806</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G46" t="n">
         <v>251.2943450749445</v>
@@ -7804,52 +7804,52 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042803</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443629</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902804</v>
       </c>
       <c r="M46" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040895</v>
       </c>
       <c r="N46" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354975</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313937</v>
       </c>
       <c r="P46" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.45563102869</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597207</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y46" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
   </sheetData>
@@ -10030,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.63624132272333</v>
+        <v>33.63624132272516</v>
       </c>
       <c r="K28" t="n">
         <v>106.7437663446525</v>
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.63624132272197</v>
+        <v>33.63624132272396</v>
       </c>
       <c r="K34" t="n">
         <v>106.7437663446525</v>
@@ -10978,7 +10978,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>33.6362413227228</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
         <v>106.7437663446525</v>
@@ -11452,7 +11452,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>33.63624132272333</v>
+        <v>33.63624132272516</v>
       </c>
       <c r="K46" t="n">
         <v>106.7437663446525</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>64.38101223036887</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>68.85649517496257</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.88649074952696</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>127.4991334359186</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23464,10 +23464,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.592917841534</v>
       </c>
       <c r="H14" t="n">
-        <v>291.2403613834999</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>28.90056660389939</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>101.6950537740602</v>
       </c>
       <c r="T14" t="n">
-        <v>124.896078956288</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9688673339484</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>125.9167694542415</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>143.4436781526118</v>
+        <v>140.364008952082</v>
       </c>
       <c r="I16" t="n">
-        <v>91.91693778434401</v>
+        <v>91.91693778434399</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>82.30038209396093</v>
       </c>
       <c r="S16" t="n">
         <v>187.1986443782762</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>42.62827036278205</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.577404873387422e-12</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.575699570821598e-12</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.612932010175427e-12</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.016076112136943e-12</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24494,7 +24494,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>9.023892744153272e-13</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26029,7 +26029,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>8.775202786637237e-13</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>966425.3873660028</v>
+        <v>966425.3873660029</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923207</v>
       </c>
       <c r="C2" t="n">
         <v>348942.7521923205</v>
@@ -26335,25 +26335,25 @@
         <v>348942.7521923204</v>
       </c>
       <c r="J2" t="n">
+        <v>348942.7521923203</v>
+      </c>
+      <c r="K2" t="n">
         <v>348942.7521923204</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>348942.7521923203</v>
+      </c>
+      <c r="M2" t="n">
         <v>348942.7521923205</v>
       </c>
-      <c r="L2" t="n">
-        <v>348942.7521923201</v>
-      </c>
-      <c r="M2" t="n">
-        <v>348942.7521923207</v>
-      </c>
       <c r="N2" t="n">
-        <v>348942.7521923202</v>
+        <v>348942.7521923206</v>
       </c>
       <c r="O2" t="n">
-        <v>348942.7521923206</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="P2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923203</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>345405.5970321838</v>
+        <v>345405.5970321805</v>
       </c>
       <c r="C3" t="n">
-        <v>50948.63134876378</v>
+        <v>50948.63134876695</v>
       </c>
       <c r="D3" t="n">
         <v>87233.51607513236</v>
       </c>
       <c r="E3" t="n">
-        <v>707780.8576429536</v>
+        <v>707780.8576429537</v>
       </c>
       <c r="F3" t="n">
-        <v>93369.8848465436</v>
+        <v>93369.88484654367</v>
       </c>
       <c r="G3" t="n">
-        <v>143964.0818975334</v>
+        <v>143964.0818975331</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4764.55896875798</v>
+        <v>4764.558968757299</v>
       </c>
       <c r="K3" t="n">
-        <v>8128.948714908285</v>
+        <v>8128.948714908815</v>
       </c>
       <c r="L3" t="n">
-        <v>41060.19902194626</v>
+        <v>41060.19902194617</v>
       </c>
       <c r="M3" t="n">
         <v>179249.6449383015</v>
       </c>
       <c r="N3" t="n">
-        <v>24549.15438613192</v>
+        <v>24549.15438613189</v>
       </c>
       <c r="O3" t="n">
-        <v>31434.59456875951</v>
+        <v>31434.5945687594</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348982.92653182</v>
+        <v>348982.9265318209</v>
       </c>
       <c r="C4" t="n">
         <v>333256.5422474307</v>
@@ -26427,34 +26427,34 @@
         <v>14649.95482218994</v>
       </c>
       <c r="F4" t="n">
-        <v>14701.82240068823</v>
+        <v>14701.82240068822</v>
       </c>
       <c r="G4" t="n">
-        <v>45839.31483610846</v>
+        <v>45839.3148361084</v>
       </c>
       <c r="H4" t="n">
-        <v>45839.31483610846</v>
+        <v>45839.31483610842</v>
       </c>
       <c r="I4" t="n">
-        <v>45839.31483610846</v>
+        <v>45839.31483610842</v>
       </c>
       <c r="J4" t="n">
+        <v>45839.31483610845</v>
+      </c>
+      <c r="K4" t="n">
+        <v>45839.31483610842</v>
+      </c>
+      <c r="L4" t="n">
         <v>45839.31483610847</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>45839.31483610845</v>
-      </c>
-      <c r="L4" t="n">
-        <v>45839.31483610851</v>
-      </c>
-      <c r="M4" t="n">
-        <v>45839.3148361085</v>
       </c>
       <c r="N4" t="n">
         <v>45839.31483610847</v>
       </c>
       <c r="O4" t="n">
-        <v>45839.31483610848</v>
+        <v>45839.31483610842</v>
       </c>
       <c r="P4" t="n">
         <v>45839.31483610845</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42410.88882425685</v>
+        <v>42410.88882425668</v>
       </c>
       <c r="C5" t="n">
         <v>45306.68319048216</v>
@@ -26476,31 +26476,31 @@
         <v>50823.37311172271</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
-        <v>82183.39720390706</v>
+        <v>82183.39720390709</v>
       </c>
       <c r="G5" t="n">
+        <v>95106.43410215528</v>
+      </c>
+      <c r="H5" t="n">
         <v>95106.4341021553</v>
       </c>
-      <c r="H5" t="n">
-        <v>95106.43410215528</v>
-      </c>
       <c r="I5" t="n">
+        <v>95106.4341021553</v>
+      </c>
+      <c r="J5" t="n">
+        <v>95106.4341021553</v>
+      </c>
+      <c r="K5" t="n">
+        <v>95106.4341021553</v>
+      </c>
+      <c r="L5" t="n">
+        <v>95106.4341021553</v>
+      </c>
+      <c r="M5" t="n">
         <v>95106.43410215527</v>
-      </c>
-      <c r="J5" t="n">
-        <v>95106.43410215528</v>
-      </c>
-      <c r="K5" t="n">
-        <v>95106.43410215527</v>
-      </c>
-      <c r="L5" t="n">
-        <v>95106.43410215528</v>
-      </c>
-      <c r="M5" t="n">
-        <v>95106.4341021553</v>
       </c>
       <c r="N5" t="n">
         <v>95106.4341021553</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-387856.6601959402</v>
+        <v>-387856.6601959374</v>
       </c>
       <c r="C6" t="n">
-        <v>-80569.1045943561</v>
+        <v>-80569.10459435925</v>
       </c>
       <c r="D6" t="n">
         <v>-94393.62762487441</v>
       </c>
       <c r="E6" t="n">
-        <v>-506889.6189012541</v>
+        <v>-507237.2378310604</v>
       </c>
       <c r="F6" t="n">
-        <v>115230.6218677712</v>
+        <v>114974.9923038099</v>
       </c>
       <c r="G6" t="n">
-        <v>64032.92135652321</v>
+        <v>64032.92135652357</v>
       </c>
       <c r="H6" t="n">
+        <v>207997.0032540567</v>
+      </c>
+      <c r="I6" t="n">
         <v>207997.0032540566</v>
       </c>
-      <c r="I6" t="n">
-        <v>207997.0032540568</v>
-      </c>
       <c r="J6" t="n">
-        <v>203232.4442852987</v>
+        <v>203232.4442852993</v>
       </c>
       <c r="K6" t="n">
-        <v>199868.0545391485</v>
+        <v>199868.0545391479</v>
       </c>
       <c r="L6" t="n">
-        <v>166936.80423211</v>
+        <v>166936.8042321104</v>
       </c>
       <c r="M6" t="n">
-        <v>28747.35831575544</v>
+        <v>28747.35831575523</v>
       </c>
       <c r="N6" t="n">
-        <v>183447.8488679246</v>
+        <v>183447.8488679249</v>
       </c>
       <c r="O6" t="n">
         <v>176562.4086852973</v>
       </c>
       <c r="P6" t="n">
-        <v>207997.0032540566</v>
+        <v>207997.0032540565</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>31.61020235221385</v>
+      </c>
+      <c r="H2" t="n">
+        <v>31.61020235221387</v>
+      </c>
+      <c r="I2" t="n">
+        <v>31.61020235221387</v>
+      </c>
+      <c r="J2" t="n">
+        <v>31.61020235221387</v>
+      </c>
+      <c r="K2" t="n">
+        <v>31.61020235221387</v>
+      </c>
+      <c r="L2" t="n">
+        <v>31.61020235221392</v>
+      </c>
+      <c r="M2" t="n">
         <v>31.6102023522139</v>
       </c>
-      <c r="H2" t="n">
-        <v>31.6102023522139</v>
-      </c>
-      <c r="I2" t="n">
-        <v>31.6102023522139</v>
-      </c>
-      <c r="J2" t="n">
-        <v>31.61020235221391</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>31.61020235221395</v>
       </c>
-      <c r="L2" t="n">
-        <v>31.61020235221398</v>
-      </c>
-      <c r="M2" t="n">
-        <v>31.61020235221394</v>
-      </c>
-      <c r="N2" t="n">
-        <v>31.61020235221394</v>
-      </c>
       <c r="O2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352.1154025228106</v>
+        <v>352.1154025228078</v>
       </c>
       <c r="C3" t="n">
         <v>396.859943267568</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21008304703265</v>
+        <v>18.21008304703069</v>
       </c>
       <c r="C4" t="n">
         <v>49.79500702712463</v>
@@ -26796,10 +26796,10 @@
         <v>112.1126601249237</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
-        <v>931.6319501461628</v>
+        <v>931.631950146163</v>
       </c>
       <c r="G4" t="n">
         <v>1062.255112188953</v>
@@ -26920,25 +26920,25 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>31.61020235221385</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>31.6102023522139</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.263256414560601e-14</v>
-      </c>
-      <c r="L2" t="n">
-        <v>31.61020235221393</v>
-      </c>
       <c r="M2" t="n">
-        <v>-4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352.1154025228106</v>
+        <v>352.1154025228078</v>
       </c>
       <c r="C3" t="n">
-        <v>44.74454074475744</v>
+        <v>44.74454074476023</v>
       </c>
       <c r="D3" t="n">
         <v>79.25580793093417</v>
@@ -26969,19 +26969,19 @@
         <v>613.660949394796</v>
       </c>
       <c r="F3" t="n">
-        <v>81.79094321497564</v>
+        <v>81.79094321497587</v>
       </c>
       <c r="G3" t="n">
-        <v>106.5922268118491</v>
+        <v>106.5922268118488</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21008304703265</v>
+        <v>18.21008304703069</v>
       </c>
       <c r="C4" t="n">
-        <v>31.58492398009197</v>
+        <v>31.58492398009393</v>
       </c>
       <c r="D4" t="n">
         <v>62.31765309779902</v>
       </c>
       <c r="E4" t="n">
-        <v>719.2887952773689</v>
+        <v>719.2887952773694</v>
       </c>
       <c r="F4" t="n">
-        <v>100.2304947438703</v>
+        <v>100.2304947438699</v>
       </c>
       <c r="G4" t="n">
-        <v>130.6231620427902</v>
+        <v>130.62316204279</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21008304703265</v>
+        <v>18.21008304703069</v>
       </c>
       <c r="K4" t="n">
-        <v>31.58492398009174</v>
+        <v>31.58492398009393</v>
       </c>
       <c r="L4" t="n">
-        <v>62.31765309779925</v>
+        <v>62.31765309779902</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773691</v>
+        <v>719.2887952773692</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438703</v>
+        <v>100.2304947438702</v>
       </c>
       <c r="O4" t="n">
-        <v>130.6231620427902</v>
+        <v>130.62316204279</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21008304703265</v>
+        <v>18.21008304703069</v>
       </c>
       <c r="K4" t="n">
-        <v>31.58492398009197</v>
+        <v>31.58492398009393</v>
       </c>
       <c r="L4" t="n">
         <v>62.31765309779902</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773689</v>
+        <v>719.2887952773694</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438703</v>
+        <v>100.2304947438699</v>
       </c>
       <c r="O4" t="n">
-        <v>130.6231620427902</v>
+        <v>130.62316204279</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27388,25 +27388,25 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>388.6659626946807</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>395.67711516148</v>
       </c>
       <c r="H2" t="n">
-        <v>324.9779101918004</v>
+        <v>324.9779101918005</v>
       </c>
       <c r="I2" t="n">
-        <v>155.9033104517701</v>
+        <v>155.9033104517705</v>
       </c>
       <c r="J2" t="n">
-        <v>60.90377530107664</v>
+        <v>53.39154399388578</v>
       </c>
       <c r="K2" t="n">
-        <v>29.24248535878769</v>
+        <v>40.02794296996299</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>12.38369583986463</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27418,19 +27418,19 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>27.67667403855268</v>
+        <v>27.6766740385543</v>
       </c>
       <c r="Q2" t="n">
-        <v>69.44336957621769</v>
+        <v>69.44336957621888</v>
       </c>
       <c r="R2" t="n">
-        <v>126.6666668443894</v>
+        <v>126.6666668443901</v>
       </c>
       <c r="S2" t="n">
-        <v>176.7634676365426</v>
+        <v>176.7634676365429</v>
       </c>
       <c r="T2" t="n">
-        <v>216.8993262493832</v>
+        <v>216.8993262493833</v>
       </c>
       <c r="U2" t="n">
         <v>251.2324097633065</v>
@@ -27461,25 +27461,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>129.2349825176061</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>126.8591293463532</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5861368634446</v>
+        <v>118.3760538164139</v>
       </c>
       <c r="H3" t="n">
-        <v>104.9207450255981</v>
+        <v>104.4224336570173</v>
       </c>
       <c r="I3" t="n">
-        <v>73.44590915279186</v>
+        <v>73.44590915279205</v>
       </c>
       <c r="J3" t="n">
-        <v>55.28179755587551</v>
+        <v>55.28179755587608</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27500,16 +27500,16 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>25.09276014253716</v>
+        <v>25.09276014253989</v>
       </c>
       <c r="R3" t="n">
-        <v>80.44540546303593</v>
+        <v>98.65548851006895</v>
       </c>
       <c r="S3" t="n">
-        <v>157.116852851442</v>
+        <v>157.6151642200257</v>
       </c>
       <c r="T3" t="n">
-        <v>197.1119545918172</v>
+        <v>197.1119545918173</v>
       </c>
       <c r="U3" t="n">
         <v>225.8915544296744</v>
@@ -27555,37 +27555,37 @@
         <v>156.5817812997788</v>
       </c>
       <c r="I4" t="n">
-        <v>136.3554298199557</v>
+        <v>136.3554298199558</v>
       </c>
       <c r="J4" t="n">
-        <v>82.10359380956172</v>
+        <v>82.10359380956208</v>
       </c>
       <c r="K4" t="n">
-        <v>55.24219515018262</v>
+        <v>55.24219515018321</v>
       </c>
       <c r="L4" t="n">
-        <v>40.48311410323755</v>
+        <v>40.48311410323829</v>
       </c>
       <c r="M4" t="n">
-        <v>39.39257270660798</v>
+        <v>39.39257270660876</v>
       </c>
       <c r="N4" t="n">
-        <v>30.51901051988115</v>
+        <v>30.51901051988193</v>
       </c>
       <c r="O4" t="n">
-        <v>48.70751749406146</v>
+        <v>48.70751749406217</v>
       </c>
       <c r="P4" t="n">
-        <v>60.93221199728745</v>
+        <v>60.93221199728806</v>
       </c>
       <c r="Q4" t="n">
-        <v>98.33557584850143</v>
+        <v>98.33557584850186</v>
       </c>
       <c r="R4" t="n">
-        <v>148.7431818545822</v>
+        <v>148.7431818545825</v>
       </c>
       <c r="S4" t="n">
-        <v>212.9509385839193</v>
+        <v>212.9509385839194</v>
       </c>
       <c r="T4" t="n">
         <v>225.2325691137615</v>
@@ -27698,22 +27698,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>134.6031353021189</v>
       </c>
       <c r="E6" t="n">
-        <v>107.8500734282763</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.4898938890125</v>
+        <v>86.69488686188784</v>
       </c>
       <c r="H6" t="n">
         <v>103.9912405093721</v>
       </c>
       <c r="I6" t="n">
-        <v>70.13228042782632</v>
+        <v>20.3372734007017</v>
       </c>
       <c r="J6" t="n">
         <v>46.18894706358476</v>
@@ -27737,19 +27737,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>31.01751192697151</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>92.6799817290989</v>
+        <v>42.88497470197427</v>
       </c>
       <c r="S6" t="n">
-        <v>106.0324861546552</v>
+        <v>155.8274931817798</v>
       </c>
       <c r="T6" t="n">
-        <v>152.864585676435</v>
+        <v>196.7240278659264</v>
       </c>
       <c r="U6" t="n">
-        <v>176.0902156279161</v>
+        <v>225.8852226550407</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27862,10 +27862,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>338.9627826088864</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>301.2760442195641</v>
       </c>
       <c r="H8" t="n">
         <v>319.8727099068761</v>
@@ -27910,7 +27910,7 @@
         <v>251.1925302541847</v>
       </c>
       <c r="V8" t="n">
-        <v>215.6395983452113</v>
+        <v>253.3263367345335</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27935,22 +27935,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>35.3324054397151</v>
       </c>
       <c r="E9" t="n">
-        <v>93.14204664438731</v>
+        <v>45.53242033047729</v>
       </c>
       <c r="F9" t="n">
         <v>32.95655226846023</v>
       </c>
       <c r="G9" t="n">
-        <v>24.20675900740719</v>
+        <v>136.3194191323308</v>
       </c>
       <c r="H9" t="n">
         <v>102.3448132540521</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>64.26286446312977</v>
       </c>
       <c r="J9" t="n">
         <v>30.08282103867671</v>
@@ -27974,10 +27974,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.256558775821418</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.095592888813</v>
       </c>
       <c r="S9" t="n">
         <v>152.6609993460486</v>
@@ -27992,7 +27992,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>162.2027108987083</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I17" t="n">
         <v>12.38037836605494</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="J19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="K19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="L19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="M19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="N19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="O19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="P19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="R19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="S19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I20" t="n">
         <v>12.38037836605494</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="J22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="K22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="L22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="M22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="N22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="O22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="P22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="R22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="S22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I23" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="J25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="K25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="L25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="M25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="N25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="O25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="P25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="R25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="S25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605494</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I29" t="n">
-        <v>12.38037836605379</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605494</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605494</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221326</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605494</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605494</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605494</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.415539306624363</v>
+        <v>1.415539306624352</v>
       </c>
       <c r="H2" t="n">
-        <v>14.49689192396676</v>
+        <v>14.49689192396665</v>
       </c>
       <c r="I2" t="n">
-        <v>54.57257911863582</v>
+        <v>54.57257911863538</v>
       </c>
       <c r="J2" t="n">
-        <v>120.1421292256097</v>
+        <v>120.1421292256087</v>
       </c>
       <c r="K2" t="n">
-        <v>180.061908075019</v>
+        <v>180.0619080750176</v>
       </c>
       <c r="L2" t="n">
-        <v>223.3827191301244</v>
+        <v>223.3827191301226</v>
       </c>
       <c r="M2" t="n">
-        <v>248.5563162743054</v>
+        <v>248.5563162743034</v>
       </c>
       <c r="N2" t="n">
-        <v>247.6231466436236</v>
+        <v>247.6231466436216</v>
       </c>
       <c r="O2" t="n">
-        <v>238.5024483490058</v>
+        <v>238.502448349004</v>
       </c>
       <c r="P2" t="n">
-        <v>203.5563217167169</v>
+        <v>203.5563217167152</v>
       </c>
       <c r="Q2" t="n">
-        <v>152.8623202982318</v>
+        <v>152.8623202982306</v>
       </c>
       <c r="R2" t="n">
-        <v>88.91887096974273</v>
+        <v>88.91887096974203</v>
       </c>
       <c r="S2" t="n">
-        <v>32.25660194970271</v>
+        <v>32.25660194970245</v>
       </c>
       <c r="T2" t="n">
-        <v>6.196523314748153</v>
+        <v>6.196523314748104</v>
       </c>
       <c r="U2" t="n">
-        <v>0.113243144529949</v>
+        <v>0.1132431445299481</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7573802997660455</v>
+        <v>0.7573802997660395</v>
       </c>
       <c r="H3" t="n">
-        <v>7.314699210898388</v>
+        <v>7.31469921089833</v>
       </c>
       <c r="I3" t="n">
-        <v>26.07647084720815</v>
+        <v>26.07647084720794</v>
       </c>
       <c r="J3" t="n">
-        <v>71.55582911079118</v>
+        <v>71.55582911079061</v>
       </c>
       <c r="K3" t="n">
-        <v>122.3003091951162</v>
+        <v>122.3003091951152</v>
       </c>
       <c r="L3" t="n">
-        <v>156.7644628269068</v>
+        <v>156.7644628269049</v>
       </c>
       <c r="M3" t="n">
-        <v>160.344116969051</v>
+        <v>148.9563446310728</v>
       </c>
       <c r="N3" t="n">
-        <v>149.551795130366</v>
+        <v>149.551795130364</v>
       </c>
       <c r="O3" t="n">
-        <v>160.0705665602839</v>
+        <v>160.8063274914751</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>144.6264188211133</v>
       </c>
       <c r="Q3" t="n">
-        <v>96.6789308964517</v>
+        <v>96.67893089645094</v>
       </c>
       <c r="R3" t="n">
-        <v>47.02401545389537</v>
+        <v>47.024015453895</v>
       </c>
       <c r="S3" t="n">
-        <v>14.06800688381228</v>
+        <v>14.06800688381217</v>
       </c>
       <c r="T3" t="n">
-        <v>3.052774103004366</v>
+        <v>3.052774103004342</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04982765130039775</v>
+        <v>0.04982765130039735</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.634962201270642</v>
+        <v>0.634962201270637</v>
       </c>
       <c r="H4" t="n">
-        <v>5.645391207660803</v>
+        <v>5.645391207660758</v>
       </c>
       <c r="I4" t="n">
-        <v>19.09504510730259</v>
+        <v>19.09504510730243</v>
       </c>
       <c r="J4" t="n">
-        <v>44.89182762983439</v>
+        <v>44.89182762983403</v>
       </c>
       <c r="K4" t="n">
-        <v>73.77106302035276</v>
+        <v>73.77106302035217</v>
       </c>
       <c r="L4" t="n">
-        <v>94.40156217800073</v>
+        <v>94.40156217799999</v>
       </c>
       <c r="M4" t="n">
-        <v>99.53321124099708</v>
+        <v>99.53321124099629</v>
       </c>
       <c r="N4" t="n">
-        <v>97.16653394535204</v>
+        <v>97.16653394535126</v>
       </c>
       <c r="O4" t="n">
-        <v>89.74902095778133</v>
+        <v>89.74902095778062</v>
       </c>
       <c r="P4" t="n">
-        <v>76.79579205186016</v>
+        <v>76.79579205185955</v>
       </c>
       <c r="Q4" t="n">
-        <v>53.1694257809444</v>
+        <v>53.16942578094397</v>
       </c>
       <c r="R4" t="n">
-        <v>28.55020952258722</v>
+        <v>28.550209522587</v>
       </c>
       <c r="S4" t="n">
-        <v>11.06565945305291</v>
+        <v>11.06565945305282</v>
       </c>
       <c r="T4" t="n">
-        <v>2.713020314520015</v>
+        <v>2.713020314519994</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0346343018874896</v>
+        <v>0.03463430188748933</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31370,7 +31370,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>185.3448253911411</v>
+        <v>157.3072689909255</v>
       </c>
       <c r="M6" t="n">
         <v>191.9290409491429</v>
@@ -31379,7 +31379,7 @@
         <v>181.1367191104579</v>
       </c>
       <c r="O6" t="n">
-        <v>164.3536950713535</v>
+        <v>192.3912514715691</v>
       </c>
       <c r="P6" t="n">
         <v>163.0046057545602</v>
@@ -31604,7 +31604,7 @@
         <v>96.75480562798998</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>165.3693736969364</v>
       </c>
       <c r="L9" t="n">
         <v>222.3595307837911</v>
@@ -31613,10 +31613,10 @@
         <v>254.246694046942</v>
       </c>
       <c r="N9" t="n">
-        <v>216.6986083828519</v>
+        <v>243.454372208257</v>
       </c>
       <c r="O9" t="n">
-        <v>243.6589731628788</v>
+        <v>189.3752746148963</v>
       </c>
       <c r="P9" t="n">
         <v>195.5578073177395</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.709819673601098</v>
+        <v>4.709819673601099</v>
       </c>
       <c r="H14" t="n">
-        <v>48.23444073226725</v>
+        <v>48.23444073226727</v>
       </c>
       <c r="I14" t="n">
         <v>181.5753229665065</v>
       </c>
       <c r="J14" t="n">
-        <v>399.7400575223015</v>
+        <v>399.7400575223016</v>
       </c>
       <c r="K14" t="n">
-        <v>599.1067243058361</v>
+        <v>599.1067243058362</v>
       </c>
       <c r="L14" t="n">
-        <v>743.2448681418059</v>
+        <v>743.244868141806</v>
       </c>
       <c r="M14" t="n">
-        <v>827.0031237622094</v>
+        <v>827.0031237622095</v>
       </c>
       <c r="N14" t="n">
-        <v>840.3848989098285</v>
+        <v>840.3848989098287</v>
       </c>
       <c r="O14" t="n">
-        <v>793.5516295304576</v>
+        <v>793.5516295304577</v>
       </c>
       <c r="P14" t="n">
-        <v>677.2779563384304</v>
+        <v>677.2779563384305</v>
       </c>
       <c r="Q14" t="n">
-        <v>508.6075392775909</v>
+        <v>508.607539277591</v>
       </c>
       <c r="R14" t="n">
-        <v>295.8532100718452</v>
+        <v>295.8532100718453</v>
       </c>
       <c r="S14" t="n">
         <v>107.3250158121851</v>
@@ -32072,43 +32072,43 @@
         <v>24.33765992137566</v>
       </c>
       <c r="I15" t="n">
-        <v>86.7623207914618</v>
+        <v>86.76232079146183</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>238.0824397667362</v>
       </c>
       <c r="K15" t="n">
-        <v>234.3875890028897</v>
+        <v>406.9208107744267</v>
       </c>
       <c r="L15" t="n">
-        <v>547.1552472332887</v>
+        <v>547.1552472332888</v>
       </c>
       <c r="M15" t="n">
-        <v>638.5043658755092</v>
+        <v>638.5043658755094</v>
       </c>
       <c r="N15" t="n">
-        <v>655.4036765111966</v>
+        <v>371.6256416395889</v>
       </c>
       <c r="O15" t="n">
-        <v>599.5663205062966</v>
+        <v>599.5663205062967</v>
       </c>
       <c r="P15" t="n">
-        <v>481.2048309068362</v>
+        <v>481.2048309068363</v>
       </c>
       <c r="Q15" t="n">
-        <v>321.6726858999623</v>
+        <v>321.6726858999624</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>46.80744312762299</v>
+        <v>46.807443127623</v>
       </c>
       <c r="T15" t="n">
         <v>10.1572704213189</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1657878741238124</v>
+        <v>0.1657878741238125</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.112662964244428</v>
+        <v>2.112662964244429</v>
       </c>
       <c r="H16" t="n">
         <v>18.78349435482775</v>
       </c>
       <c r="I16" t="n">
-        <v>63.53353714291428</v>
+        <v>63.53353714291429</v>
       </c>
       <c r="J16" t="n">
         <v>149.3652715720811</v>
       </c>
       <c r="K16" t="n">
-        <v>245.4530243913071</v>
+        <v>245.4530243913072</v>
       </c>
       <c r="L16" t="n">
-        <v>314.0953647023035</v>
+        <v>314.0953647023036</v>
       </c>
       <c r="M16" t="n">
-        <v>331.1695226587879</v>
+        <v>331.169522658788</v>
       </c>
       <c r="N16" t="n">
         <v>323.2950516102408</v>
       </c>
       <c r="O16" t="n">
-        <v>298.6153069824762</v>
+        <v>298.6153069824763</v>
       </c>
       <c r="P16" t="n">
-        <v>255.5169825118896</v>
+        <v>255.5169825118897</v>
       </c>
       <c r="Q16" t="n">
         <v>176.9067142150494</v>
       </c>
       <c r="R16" t="n">
-        <v>94.99300928320854</v>
+        <v>94.99300928320855</v>
       </c>
       <c r="S16" t="n">
-        <v>36.81795365869607</v>
+        <v>36.81795365869608</v>
       </c>
       <c r="T16" t="n">
-        <v>9.026832665408008</v>
+        <v>9.02683266540801</v>
       </c>
       <c r="U16" t="n">
         <v>0.1152361616860599</v>
@@ -32315,10 +32315,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>443.9435090247271</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>596.9368339155585</v>
+        <v>382.5296487700709</v>
       </c>
       <c r="M18" t="n">
         <v>696.597129487967</v>
@@ -32330,10 +32330,10 @@
         <v>654.1164009578284</v>
       </c>
       <c r="P18" t="n">
-        <v>215.4343416764904</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691327</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32552,7 +32552,7 @@
         <v>259.7437903115856</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L21" t="n">
         <v>596.9368339155585</v>
@@ -32561,13 +32561,13 @@
         <v>696.597129487967</v>
       </c>
       <c r="N21" t="n">
-        <v>715.033982716063</v>
+        <v>272.5760810583992</v>
       </c>
       <c r="O21" t="n">
         <v>654.1164009578284</v>
       </c>
       <c r="P21" t="n">
-        <v>388.6302480819398</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H23" t="n">
-        <v>52.62293376879729</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I23" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J23" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K23" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L23" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M23" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N23" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O23" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P23" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q23" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R23" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S23" t="n">
         <v>117.0897208110796</v>
@@ -32740,7 +32740,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H24" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I24" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J24" t="n">
-        <v>259.7437903115855</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K24" t="n">
-        <v>344.9911857499013</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L24" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N24" t="n">
-        <v>715.0339827160628</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P24" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T24" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32865,10 +32865,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J25" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K25" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L25" t="n">
         <v>342.6725659692048</v>
@@ -32880,22 +32880,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O25" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P25" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q25" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R25" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S25" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T25" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U25" t="n">
         <v>0.1257206430118155</v>
@@ -33269,19 +33269,19 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N30" t="n">
-        <v>616.081659441237</v>
+        <v>663.587753333304</v>
       </c>
       <c r="O30" t="n">
         <v>654.1164009578284</v>
       </c>
       <c r="P30" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33500,28 +33500,28 @@
         <v>259.7437903115856</v>
       </c>
       <c r="K33" t="n">
-        <v>223.8954149958792</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M33" t="n">
         <v>696.597129487967</v>
       </c>
       <c r="N33" t="n">
-        <v>715.033982716063</v>
+        <v>663.587753333304</v>
       </c>
       <c r="O33" t="n">
         <v>654.1164009578284</v>
       </c>
       <c r="P33" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>51.06610426486998</v>
@@ -33983,10 +33983,10 @@
         <v>696.597129487967</v>
       </c>
       <c r="N39" t="n">
-        <v>715.033982716063</v>
+        <v>663.587753333304</v>
       </c>
       <c r="O39" t="n">
-        <v>602.6701715750696</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34220,10 +34220,10 @@
         <v>696.597129487967</v>
       </c>
       <c r="N42" t="n">
-        <v>715.033982716063</v>
+        <v>663.587753333304</v>
       </c>
       <c r="O42" t="n">
-        <v>602.6701715750696</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34457,13 +34457,13 @@
         <v>696.597129487967</v>
       </c>
       <c r="N45" t="n">
-        <v>715.033982716063</v>
+        <v>663.587753333304</v>
       </c>
       <c r="O45" t="n">
-        <v>211.6584993001647</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P45" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34705,13 +34705,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>18.21008304703265</v>
+        <v>18.21008304703069</v>
       </c>
       <c r="N2" t="n">
-        <v>18.21008304703265</v>
+        <v>18.21008304703069</v>
       </c>
       <c r="O2" t="n">
-        <v>8.404236927319118</v>
+        <v>8.404236927317243</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>18.21008304703265</v>
+        <v>18.21008304703069</v>
       </c>
       <c r="M3" t="n">
-        <v>18.21008304703265</v>
+        <v>6.822310709054505</v>
       </c>
       <c r="N3" t="n">
-        <v>18.21008304703265</v>
+        <v>18.21008304703069</v>
       </c>
       <c r="O3" t="n">
-        <v>17.47432211583941</v>
+        <v>18.21008304703069</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>10.65201140678303</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>46.79044561126693</v>
+        <v>18.75288921105129</v>
       </c>
       <c r="M6" t="n">
         <v>49.79500702712463</v>
@@ -35027,7 +35027,7 @@
         <v>49.79500702712463</v>
       </c>
       <c r="O6" t="n">
-        <v>21.75745062690901</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="P6" t="n">
         <v>29.03019834022993</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>27.52793472257738</v>
       </c>
       <c r="L9" t="n">
         <v>83.8051510039169</v>
@@ -35261,10 +35261,10 @@
         <v>112.1126601249237</v>
       </c>
       <c r="N9" t="n">
-        <v>85.35689629951858</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O9" t="n">
-        <v>101.0627287184343</v>
+        <v>46.77903017045187</v>
       </c>
       <c r="P9" t="n">
         <v>61.58339990340929</v>
@@ -35568,7 +35568,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>218.6941529956152</v>
+        <v>218.6941529956153</v>
       </c>
       <c r="K14" t="n">
-        <v>379.0168732608556</v>
+        <v>379.0168732608557</v>
       </c>
       <c r="L14" t="n">
-        <v>507.4784531718187</v>
+        <v>507.4784531718188</v>
       </c>
       <c r="M14" t="n">
-        <v>596.6568905349367</v>
+        <v>596.6568905349368</v>
       </c>
       <c r="N14" t="n">
-        <v>610.9718353132375</v>
+        <v>610.9718353132378</v>
       </c>
       <c r="O14" t="n">
-        <v>563.4534181087708</v>
+        <v>563.453418108771</v>
       </c>
       <c r="P14" t="n">
-        <v>446.0449605831608</v>
+        <v>446.044960583161</v>
       </c>
       <c r="Q14" t="n">
-        <v>286.3018494031414</v>
+        <v>286.3018494031415</v>
       </c>
       <c r="R14" t="n">
-        <v>80.26767225771312</v>
+        <v>80.26767225771317</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>111.2448131000695</v>
       </c>
       <c r="K15" t="n">
-        <v>96.54615002853076</v>
+        <v>269.0793718000677</v>
       </c>
       <c r="L15" t="n">
-        <v>408.6008674534145</v>
+        <v>408.6008674534147</v>
       </c>
       <c r="M15" t="n">
-        <v>496.3703319534908</v>
+        <v>496.3703319534911</v>
       </c>
       <c r="N15" t="n">
-        <v>524.0619644278634</v>
+        <v>240.2839295562557</v>
       </c>
       <c r="O15" t="n">
-        <v>456.9700760618522</v>
+        <v>456.9700760618523</v>
       </c>
       <c r="P15" t="n">
         <v>347.230423492506</v>
       </c>
       <c r="Q15" t="n">
-        <v>181.6909118139408</v>
+        <v>181.6909118139409</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>56.0060914554083</v>
+        <v>56.00609145540832</v>
       </c>
       <c r="K16" t="n">
         <v>223.1835325654243</v>
       </c>
       <c r="L16" t="n">
-        <v>341.6853899626196</v>
+        <v>341.6853899626198</v>
       </c>
       <c r="M16" t="n">
-        <v>370.7533996206285</v>
+        <v>370.7533996206286</v>
       </c>
       <c r="N16" t="n">
-        <v>367.4272239894693</v>
+        <v>367.4272239894694</v>
       </c>
       <c r="O16" t="n">
-        <v>323.2004348965159</v>
+        <v>323.200434896516</v>
       </c>
       <c r="P16" t="n">
-        <v>252.7955417767831</v>
+        <v>252.7955417767832</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.74467096335498</v>
+        <v>90.74467096335501</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>306.1020700503681</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>458.3824541356843</v>
+        <v>243.9752689901967</v>
       </c>
       <c r="M18" t="n">
         <v>554.4630955659486</v>
@@ -35978,10 +35978,10 @@
         <v>511.520156513384</v>
       </c>
       <c r="P18" t="n">
-        <v>81.45993426216013</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193557</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L19" t="n">
         <v>401.8727935817348</v>
@@ -36051,16 +36051,16 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O19" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P19" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>132.9061636449189</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L21" t="n">
         <v>458.3824541356843</v>
@@ -36209,13 +36209,13 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N21" t="n">
-        <v>583.6922706327297</v>
+        <v>141.2343689750659</v>
       </c>
       <c r="O21" t="n">
         <v>511.520156513384</v>
       </c>
       <c r="P21" t="n">
-        <v>254.6558406676096</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L22" t="n">
         <v>401.8727935817348</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K23" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L23" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M23" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N23" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O23" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P23" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R23" t="n">
         <v>107.1851555440239</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>132.9061636449188</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K24" t="n">
-        <v>207.1497467755423</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L24" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
-        <v>583.6922706327296</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O24" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36525,13 +36525,13 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O25" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P25" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q25" t="n">
         <v>138.4502995641581</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193576</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L28" t="n">
         <v>401.8727935817348</v>
@@ -36762,7 +36762,7 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O28" t="n">
         <v>381.9794231908712</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-1.14835189617794e-12</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>255.0635279116843</v>
@@ -36917,19 +36917,19 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N30" t="n">
-        <v>484.7399473579036</v>
+        <v>532.2460412499707</v>
       </c>
       <c r="O30" t="n">
         <v>511.520156513384</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,19 +36990,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L31" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N31" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P31" t="n">
         <v>307.6533340553059</v>
@@ -37148,28 +37148,28 @@
         <v>132.9061636449189</v>
       </c>
       <c r="K33" t="n">
-        <v>86.05397602152016</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M33" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N33" t="n">
-        <v>583.6922706327297</v>
+        <v>532.2460412499707</v>
       </c>
       <c r="O33" t="n">
         <v>511.520156513384</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.2059290193545</v>
+        <v>101.2059290193564</v>
       </c>
       <c r="K34" t="n">
         <v>277.1256801414978</v>
@@ -37239,13 +37239,13 @@
         <v>428.4516387010908</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P34" t="n">
-        <v>307.653334055306</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37467,16 +37467,16 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L37" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M37" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N37" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O37" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P37" t="n">
         <v>307.6533340553059</v>
@@ -37631,10 +37631,10 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N39" t="n">
-        <v>583.6922706327297</v>
+        <v>532.2460412499707</v>
       </c>
       <c r="O39" t="n">
-        <v>460.0739271306251</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>101.2059290193553</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
         <v>277.1256801414978</v>
@@ -37868,10 +37868,10 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
-        <v>583.6922706327297</v>
+        <v>532.2460412499707</v>
       </c>
       <c r="O42" t="n">
-        <v>460.0739271306251</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L43" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M43" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N43" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O43" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P43" t="n">
         <v>307.6533340553059</v>
@@ -38105,13 +38105,13 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
-        <v>583.6922706327297</v>
+        <v>532.2460412499707</v>
       </c>
       <c r="O45" t="n">
-        <v>69.06225485572025</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P45" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193576</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L46" t="n">
         <v>401.8727935817348</v>
@@ -38184,7 +38184,7 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N46" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O46" t="n">
         <v>381.9794231908712</v>
